--- a/Preprocess/按月分组分类.xlsx
+++ b/Preprocess/按月分组分类.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aaaStudy\MathModel_Optimization\Project\2023C\Preprocess\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341F2ACA-4E45-4ECB-9913-F21347F5EC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8D7D5-10CE-4ADA-A62E-3598DC7D76CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
